--- a/server/public/templates/template_import_guru.xlsx
+++ b/server/public/templates/template_import_guru.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\E-Rapor_PBL\server\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29E0156-AF44-4AD3-ACC2-4BE2EA8E240A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030FEF15-2546-428C-AB11-F81BAC86156A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="9420" xr2:uid="{5EAB3BAD-8223-4C73-9356-875E8FB82C71}"/>
   </bookViews>
@@ -550,15 +550,15 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
@@ -574,10 +574,10 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -606,10 +606,10 @@
       <c r="B2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>1234567190</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>1223435676</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -638,10 +638,10 @@
       <c r="B3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>1234567891</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>7645321456</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -670,10 +670,10 @@
       <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>1234567892</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>7645321656</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -702,10 +702,10 @@
       <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>1234567893</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>7645311456</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -736,5 +736,6 @@
     <hyperlink ref="B5" r:id="rId4" xr:uid="{DBC2663B-5A49-48F0-89E1-4CB62A4E5BBB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>